--- a/stats_proj_data.xlsx
+++ b/stats_proj_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiscerda/Desktop/CPSC/stats/final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03A9CC-C500-7D49-8B03-CB91D4768362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB24D16-DFC2-7E46-B2E6-C9927EA8DE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="760" windowWidth="28040" windowHeight="17240" xr2:uid="{605DF7E2-A4BA-2745-BAA5-67F2613E5E2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
   <si>
     <t>Age</t>
   </si>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C5092C-9250-1045-95B3-79E16214F4D5}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="159" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,11 +1023,89 @@
         <v>6</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>

--- a/stats_proj_data.xlsx
+++ b/stats_proj_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiscerda/Desktop/CPSC/stats/final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB24D16-DFC2-7E46-B2E6-C9927EA8DE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA0DC6-1F16-894A-8CEB-16643CC59530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="760" windowWidth="28040" windowHeight="17240" xr2:uid="{605DF7E2-A4BA-2745-BAA5-67F2613E5E2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
   <si>
     <t>Age</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>seen</t>
-  </si>
-  <si>
-    <t>Told</t>
   </si>
   <si>
     <t xml:space="preserve">Female </t>
@@ -451,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C5092C-9250-1045-95B3-79E16214F4D5}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="159" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="159" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -488,7 +485,7 @@
         <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -516,7 +513,7 @@
         <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -628,7 +625,7 @@
         <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -698,7 +695,7 @@
         <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -726,7 +723,7 @@
         <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -754,12 +751,12 @@
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>31</v>
@@ -1108,18 +1105,76 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>89</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
   </sheetData>

--- a/stats_proj_data.xlsx
+++ b/stats_proj_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louiscerda/Desktop/CPSC/stats/final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA0DC6-1F16-894A-8CEB-16643CC59530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A1E870-7AE4-2847-8E6F-AE4AEA50CE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="760" windowWidth="28040" windowHeight="17240" xr2:uid="{605DF7E2-A4BA-2745-BAA5-67F2613E5E2E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="20">
   <si>
     <t>Age</t>
   </si>
@@ -66,18 +66,54 @@
   </si>
   <si>
     <t>Via</t>
+  </si>
+  <si>
+    <t>Activity Level</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Indigo</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Grit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -107,11 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C5092C-9250-1045-95B3-79E16214F4D5}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="159" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -458,9 +495,10 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,8 +511,17 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -487,8 +534,17 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -501,8 +557,17 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -515,8 +580,17 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -529,8 +603,17 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -543,8 +626,17 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -557,8 +649,17 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -571,8 +672,17 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -585,8 +695,17 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -599,8 +718,17 @@
       <c r="D10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -613,8 +741,17 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="4">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -627,8 +764,17 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -641,8 +787,17 @@
       <c r="D13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -655,8 +810,17 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -669,8 +833,17 @@
       <c r="D15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -683,8 +856,17 @@
       <c r="D16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -697,8 +879,17 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -711,8 +902,17 @@
       <c r="D18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -725,8 +925,17 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -739,8 +948,17 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -753,8 +971,17 @@
       <c r="D21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -767,8 +994,17 @@
       <c r="D22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -781,8 +1017,17 @@
       <c r="D23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -795,8 +1040,17 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -809,8 +1063,17 @@
       <c r="D25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -823,8 +1086,17 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -837,8 +1109,17 @@
       <c r="D27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -851,8 +1132,17 @@
       <c r="D28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="4">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -865,8 +1155,17 @@
       <c r="D29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -879,8 +1178,17 @@
       <c r="D30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -893,8 +1201,17 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="4">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -907,8 +1224,17 @@
       <c r="D32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -921,8 +1247,17 @@
       <c r="D33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="4">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -935,8 +1270,17 @@
       <c r="D34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -949,8 +1293,17 @@
       <c r="D35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -963,8 +1316,17 @@
       <c r="D36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -977,8 +1339,17 @@
       <c r="D37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -991,8 +1362,17 @@
       <c r="D38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="4">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1005,8 +1385,17 @@
       <c r="D39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1019,8 +1408,17 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1033,8 +1431,17 @@
       <c r="D41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="4">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1047,8 +1454,17 @@
       <c r="D42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1061,8 +1477,17 @@
       <c r="D43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1075,8 +1500,17 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
@@ -1089,8 +1523,17 @@
       <c r="D45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -1103,8 +1546,17 @@
       <c r="D46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
@@ -1117,8 +1569,17 @@
       <c r="D47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -1131,8 +1592,17 @@
       <c r="D48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="4">
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -1145,8 +1615,17 @@
       <c r="D49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -1159,8 +1638,17 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="4">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -1173,9 +1661,19 @@
       <c r="D51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
+      <c r="E52" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
